--- a/medicine/Enfance/Médaille_Caldecott/Médaille_Caldecott.xlsx
+++ b/medicine/Enfance/Médaille_Caldecott/Médaille_Caldecott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Caldecott</t>
+          <t>Médaille_Caldecott</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La médaille Caldecott (Caldecott Medal) est une récompense décernée par l'Association for Library Service to Children, branche de l'American Library Association, à l'illustrateur du meilleur livre pour enfant américain de l'année.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Caldecott</t>
+          <t>Médaille_Caldecott</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>La médaille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La médaille porte le nom de Randolph Caldecott, un illustrateur anglais du XIXe siècle. Rene Paul Chambellan (en) (sculpteur américain, 1893-1955) a conçu la médaille en 1937. La scène de l'avers est inspirée de l'illustration de couverture de Randolph Caldecott pour The Diverting History of John Gilpin, une édition du poème de 1782 de William Cowper, qui représente John Gilpin à califourchon sur un cheval en fuite.
 Le revers est inspiré de "Four and twenty blackbirds baked in a pie", l'une des illustrations de Caldecott pour la comptine "Sing a Song of Sixpence" et représente un homme transportant difficilement une énorme tarte et entouré de trois merles. Il porte l'inscription "For the most distinguished american picture book for children. Awarded annually by the children's and school librarians. Sections of the American Library Association". 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Caldecott</t>
+          <t>Médaille_Caldecott</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Caldecott</t>
+          <t>Médaille_Caldecott</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ 
